--- a/docs/StructureDefinition-VAEligibilityObservation1.xlsx
+++ b/docs/StructureDefinition-VAEligibilityObservation1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -335,247 +335,244 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2668,7 +2665,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2687,15 +2684,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2732,14 +2731,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2769,7 +2770,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2784,7 +2785,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2803,16 +2804,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2862,7 +2863,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -2900,7 +2901,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2923,17 +2924,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -2982,7 +2983,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3000,19 +3001,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3020,11 +3021,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3043,17 +3044,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3102,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3120,16 +3121,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3140,7 +3141,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3166,48 +3167,48 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>46</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>57</v>
@@ -3242,19 +3243,19 @@
         <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3262,7 +3263,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3285,19 +3286,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3322,14 +3323,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3373,10 +3374,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3384,11 +3385,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3407,17 +3408,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3442,14 +3443,14 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>46</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>57</v>
@@ -3484,27 +3485,27 @@
         <v>46</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3527,13 +3528,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3584,7 +3585,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3611,7 +3612,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3622,11 +3623,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3645,16 +3646,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3692,19 +3693,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3731,7 +3732,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3742,7 +3743,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3765,19 +3766,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3826,7 +3827,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3850,10 +3851,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -3864,7 +3865,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3887,13 +3888,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3944,7 +3945,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -3971,7 +3972,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -3982,11 +3983,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4005,16 +4006,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4052,19 +4053,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4091,7 +4092,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4102,7 +4103,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4128,65 +4129,65 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4210,10 +4211,10 @@
         <v>46</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4224,7 +4225,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4247,16 +4248,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4306,7 +4307,7 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4330,10 +4331,10 @@
         <v>46</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4344,7 +4345,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4370,63 +4371,63 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4450,10 +4451,10 @@
         <v>46</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4464,7 +4465,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4487,66 +4488,66 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4570,10 +4571,10 @@
         <v>46</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4584,7 +4585,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4607,19 +4608,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4668,7 +4669,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4692,10 +4693,10 @@
         <v>46</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4706,7 +4707,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4729,19 +4730,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4790,7 +4791,7 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4814,10 +4815,10 @@
         <v>46</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4828,7 +4829,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4851,19 +4852,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -4912,7 +4913,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -4930,19 +4931,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -4950,11 +4951,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4973,19 +4974,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5034,7 +5035,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5052,19 +5053,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5072,11 +5073,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5095,19 +5096,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5156,7 +5157,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5174,19 +5175,19 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5194,7 +5195,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5217,16 +5218,16 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5276,7 +5277,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5300,13 +5301,13 @@
         <v>46</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5314,7 +5315,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5337,17 +5338,17 @@
         <v>58</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>46</v>
@@ -5396,7 +5397,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5414,19 +5415,19 @@
         <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5434,7 +5435,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5457,19 +5458,19 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5506,17 +5507,17 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5525,45 +5526,45 @@
         <v>57</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>44</v>
@@ -5581,19 +5582,19 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="M33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5642,7 +5643,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5651,36 +5652,36 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5703,19 +5704,19 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -5743,11 +5744,11 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>46</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5773,7 +5774,7 @@
         <v>57</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>46</v>
@@ -5782,7 +5783,7 @@
         <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>46</v>
@@ -5791,7 +5792,7 @@
         <v>100</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5802,11 +5803,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5825,17 +5826,17 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>46</v>
@@ -5863,11 +5864,11 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>46</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5905,24 +5906,24 @@
         <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5945,17 +5946,17 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6004,7 +6005,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6022,16 +6023,16 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>46</v>
@@ -6042,7 +6043,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6065,16 +6066,16 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6100,14 +6101,14 @@
         <v>46</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>46</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6145,24 +6146,24 @@
         <v>46</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6185,19 +6186,19 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6222,14 +6223,14 @@
         <v>46</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>46</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6270,10 +6271,10 @@
         <v>46</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6284,7 +6285,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6307,16 +6308,16 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6366,7 +6367,7 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6387,24 +6388,24 @@
         <v>46</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6427,16 +6428,16 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6486,7 +6487,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6507,24 +6508,24 @@
         <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6547,19 +6548,19 @@
         <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6608,7 +6609,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6620,22 +6621,22 @@
         <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6646,7 +6647,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6669,13 +6670,13 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6726,7 +6727,7 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6753,7 +6754,7 @@
         <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6764,11 +6765,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6787,16 +6788,16 @@
         <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6846,7 +6847,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6873,7 +6874,7 @@
         <v>46</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -6884,11 +6885,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6907,16 +6908,16 @@
         <v>58</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6966,7 +6967,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -7004,7 +7005,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7027,13 +7028,13 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7084,7 +7085,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7093,25 +7094,25 @@
         <v>57</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AI45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
@@ -7122,7 +7123,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7145,13 +7146,13 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7202,7 +7203,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7211,25 +7212,25 @@
         <v>57</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AI46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AN46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7240,7 +7241,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7263,19 +7264,19 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
@@ -7303,11 +7304,11 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7345,13 +7346,13 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AN47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7362,7 +7363,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7385,19 +7386,19 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7422,14 +7423,14 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>46</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7467,13 +7468,13 @@
         <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AN48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
@@ -7484,7 +7485,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7507,17 +7508,17 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
@@ -7566,7 +7567,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7593,7 +7594,7 @@
         <v>46</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7604,7 +7605,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7627,13 +7628,13 @@
         <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7684,7 +7685,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7708,10 +7709,10 @@
         <v>46</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -7722,7 +7723,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7745,19 +7746,19 @@
         <v>58</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>46</v>
@@ -7806,7 +7807,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7818,22 +7819,22 @@
         <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
@@ -7844,7 +7845,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7867,13 +7868,13 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7924,7 +7925,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -7951,7 +7952,7 @@
         <v>46</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -7962,11 +7963,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7985,16 +7986,16 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8044,7 +8045,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8071,7 +8072,7 @@
         <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8082,11 +8083,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8105,16 +8106,16 @@
         <v>58</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8164,7 +8165,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8202,7 +8203,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8228,16 +8229,16 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8262,14 +8263,14 @@
         <v>46</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>46</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8313,7 +8314,7 @@
         <v>100</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
@@ -8324,7 +8325,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8347,13 +8348,13 @@
         <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8404,7 +8405,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>57</v>
@@ -8431,7 +8432,7 @@
         <v>46</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
@@ -8442,7 +8443,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8465,19 +8466,19 @@
         <v>58</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8526,7 +8527,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8538,7 +8539,7 @@
         <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>46</v>
@@ -8550,10 +8551,10 @@
         <v>46</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8564,7 +8565,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8587,13 +8588,13 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8644,7 +8645,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8671,7 +8672,7 @@
         <v>46</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -8682,11 +8683,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8705,16 +8706,16 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8764,7 +8765,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8791,7 +8792,7 @@
         <v>46</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -8802,11 +8803,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8825,16 +8826,16 @@
         <v>58</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8884,7 +8885,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -8922,7 +8923,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8945,17 +8946,17 @@
         <v>58</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>46</v>
@@ -8980,14 +8981,14 @@
         <v>46</v>
       </c>
       <c r="W61" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X61" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>46</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>57</v>
@@ -9025,16 +9026,16 @@
         <v>46</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>46</v>
@@ -9042,7 +9043,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9065,19 +9066,19 @@
         <v>58</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>46</v>
@@ -9126,7 +9127,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9147,24 +9148,24 @@
         <v>46</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9187,19 +9188,19 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>46</v>
@@ -9227,11 +9228,11 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>46</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9257,7 +9258,7 @@
         <v>57</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>46</v>
@@ -9275,7 +9276,7 @@
         <v>100</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9286,11 +9287,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9309,19 +9310,19 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>46</v>
@@ -9349,11 +9350,11 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>46</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9391,24 +9392,24 @@
         <v>46</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9434,16 +9435,16 @@
         <v>46</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>46</v>
@@ -9492,7 +9493,7 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
@@ -9516,10 +9517,10 @@
         <v>46</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>46</v>
